--- a/src/excel/Check Error HeyKorea_Dữ liệu trung cấp.xlsx
+++ b/src/excel/Check Error HeyKorea_Dữ liệu trung cấp.xlsx
@@ -7,20 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="95_Món ăn" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="94_Yêu cầu" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="93_Mua sắm" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="92_Trang phục" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="91_Bệnh tật" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="89_Sức khỏe" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="88_Kết quả" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="87_Giúp đỡ" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="86_Họp mặt" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="85_Hỏi thăm" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="84_Mối quan hệ (2)" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="83_Thay đổi" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="82_Kế hoạch (2)" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="81_Học tập (2)" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="100_Du lịch (2)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="99_Tiết kiệm" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="98_Ngân hàng" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="97_Tiền tệ" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="96_Chế biến món ăn" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,96 +429,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -598,76 +499,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/src/excel/Check Error HeyKorea_Dữ liệu trung cấp.xlsx
+++ b/src/excel/Check Error HeyKorea_Dữ liệu trung cấp.xlsx
@@ -8,10 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="100_Du lịch (2)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="99_Tiết kiệm" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="98_Ngân hàng" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="97_Tiền tệ" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="96_Chế biến món ăn" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,76 +423,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/src/excel/Check Error HeyKorea_Dữ liệu trung cấp.xlsx
+++ b/src/excel/Check Error HeyKorea_Dữ liệu trung cấp.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="100_Du lịch (2)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="143_Cư trú" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="142_Phân loại rác" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="141_Sinh hoạt hàng ngày" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -423,4 +425,40 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>